--- a/po_analysis_by_asin/B0BHM59TQB_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHM59TQB_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -525,7 +526,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -567,6 +568,243 @@
       </c>
       <c r="B6" t="n">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" t="n">
+        <v>49.99999994175453</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.0000000628256</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49.99999993360198</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.00000006274355</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="n">
+        <v>49.99999993643041</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.00000005999608</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>49.99999993341022</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50.00000006160847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="n">
+        <v>49.99999993776879</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.00000006533416</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>49.99999993224107</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50.00000006504066</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>49.99999993528606</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50.00000006382224</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>49.9999999349939</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.000000068103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49.99999992495491</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50.00000007649221</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>49.9999999145096</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50.00000008932096</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="n">
+        <v>49.99999989835559</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50.00000010376758</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>49.99999986735479</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50.00000011961817</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>49.99999982075617</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50.0000001537988</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49.99999979201425</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50.00000019514172</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BHM59TQB_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHM59TQB_po_data.xlsx
@@ -581,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,16 +600,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -618,12 +608,6 @@
       <c r="B2" t="n">
         <v>50</v>
       </c>
-      <c r="C2" t="n">
-        <v>49.99999994175453</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.0000000628256</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -632,12 +616,6 @@
       <c r="B3" t="n">
         <v>50</v>
       </c>
-      <c r="C3" t="n">
-        <v>49.99999993360198</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.00000006274355</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -646,12 +624,6 @@
       <c r="B4" t="n">
         <v>50</v>
       </c>
-      <c r="C4" t="n">
-        <v>49.99999993643041</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50.00000005999608</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -660,12 +632,6 @@
       <c r="B5" t="n">
         <v>50</v>
       </c>
-      <c r="C5" t="n">
-        <v>49.99999993341022</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50.00000006160847</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -674,12 +640,6 @@
       <c r="B6" t="n">
         <v>50</v>
       </c>
-      <c r="C6" t="n">
-        <v>49.99999993776879</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50.00000006533416</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -688,12 +648,6 @@
       <c r="B7" t="n">
         <v>50</v>
       </c>
-      <c r="C7" t="n">
-        <v>49.99999993224107</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50.00000006504066</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -702,12 +656,6 @@
       <c r="B8" t="n">
         <v>50</v>
       </c>
-      <c r="C8" t="n">
-        <v>49.99999993528606</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50.00000006382224</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -716,12 +664,6 @@
       <c r="B9" t="n">
         <v>50</v>
       </c>
-      <c r="C9" t="n">
-        <v>49.9999999349939</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50.000000068103</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -730,12 +672,6 @@
       <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="n">
-        <v>49.99999992495491</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50.00000007649221</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -744,12 +680,6 @@
       <c r="B11" t="n">
         <v>50</v>
       </c>
-      <c r="C11" t="n">
-        <v>49.9999999145096</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50.00000008932096</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -758,12 +688,6 @@
       <c r="B12" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="n">
-        <v>49.99999989835559</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50.00000010376758</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -772,12 +696,6 @@
       <c r="B13" t="n">
         <v>50</v>
       </c>
-      <c r="C13" t="n">
-        <v>49.99999986735479</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50.00000011961817</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -786,12 +704,6 @@
       <c r="B14" t="n">
         <v>50</v>
       </c>
-      <c r="C14" t="n">
-        <v>49.99999982075617</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50.0000001537988</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -799,12 +711,6 @@
       </c>
       <c r="B15" t="n">
         <v>50</v>
-      </c>
-      <c r="C15" t="n">
-        <v>49.99999979201425</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50.00000019514172</v>
       </c>
     </row>
   </sheetData>
